--- a/A-开发相关文档素材/3.测试用例/参与人/添加群组 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/添加群组 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>用例接口</t>
   </si>
@@ -141,7 +141,7 @@
     <t>标签中含有权限标签(1)时，群成员为空</t>
   </si>
   <si>
-    <t xml:space="preserve">标签中含有权限标签，不传入member，其它入参正常传参
+    <t xml:space="preserve">标签中含有权限标签，不传入member，其它入参正常传参，查看结果是否正确
 </t>
   </si>
   <si>
@@ -149,8 +149,18 @@
 后台抛错：权限群组需添加群成员</t>
   </si>
   <si>
-    <t xml:space="preserve">标签中含有权限标签，member传[]，其它入参正常传参
+    <t xml:space="preserve">标签中含有权限标签，member传[]，其它入参正常传参，查看结果是否正确
 </t>
+  </si>
+  <si>
+    <t>群成员联系方式不为11位或不为数字</t>
+  </si>
+  <si>
+    <t>群成员联系方式不为11位或不为数字，其它入参正常传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误：添加失败
+后台抛错：群成员联系方式格式错误</t>
   </si>
   <si>
     <t>入参特殊字符异常</t>
@@ -164,6 +174,16 @@
   <si>
     <t>返回错误：查询失败
 后台抛错：群组名称包含关键字</t>
+  </si>
+  <si>
+    <t>群成员姓名不能包含特殊字符</t>
+  </si>
+  <si>
+    <t>群成员名包含特殊字符，其它入参正常传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误：查询失败
+后台抛错：群成员名称包含关键字</t>
   </si>
   <si>
     <t>入参项目异常</t>
@@ -252,9 +272,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -303,15 +323,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,31 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,9 +369,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,22 +410,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,30 +430,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,181 +499,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,6 +776,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -767,6 +822,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,59 +873,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -861,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +893,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,14 +1087,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,10 +1573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1571,7 +1603,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="27"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1586,7 +1618,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="27"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1619,7 +1651,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1868,13 +1900,13 @@
       <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1893,9 +1925,9 @@
       <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1910,132 +1942,172 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="1:11">
-      <c r="A17" s="20">
+    <row r="17" ht="28" customHeight="1" spans="1:11">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:11">
+      <c r="A18" s="22">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:11">
-      <c r="A18" s="20">
-        <v>15</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:11">
+    <row r="19" ht="25" customHeight="1" spans="1:11">
       <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="G19" s="24"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" ht="27" spans="1:11">
+    <row r="20" ht="15" customHeight="1" spans="1:11">
       <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:11">
-      <c r="A21" s="20">
+        <v>54</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:11">
+      <c r="A21" s="26">
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+    <row r="22" ht="27" spans="1:11">
+      <c r="A22" s="26">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" ht="25" customHeight="1" spans="1:11">
+      <c r="A23" s="22">
+        <v>20</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
@@ -2058,14 +2130,21 @@
     <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
@@ -2076,7 +2155,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9 G10:G12">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -2098,7 +2177,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2106,10 +2185,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2117,15 +2196,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2155,31 +2234,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/A-开发相关文档素材/3.测试用例/参与人/添加群组 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/添加群组 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>用例接口</t>
   </si>
@@ -135,7 +135,25 @@
     <t>labelIds不传，其他入参正常传参，查看结果是否正确</t>
   </si>
   <si>
+    <t>int类型传入极端值</t>
+  </si>
+  <si>
+    <t>userId为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误:请求参数错误，请检查后重新输入后台抛错:请求参数错误，请检查后重新输入</t>
+  </si>
+  <si>
+    <t>userId为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
     <t>入参类型异常</t>
+  </si>
+  <si>
+    <t>传入不同的参数类型</t>
+  </si>
+  <si>
+    <t>userId不传入int类型，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>标签中含有权限标签(1)时，群成员为空</t>
@@ -272,9 +290,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,23 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +413,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,6 +511,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,31 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,139 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,21 +815,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -831,6 +834,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,16 +911,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,10 +932,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,7 +944,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,88 +956,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1029,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1082,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1076,43 +1097,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1573,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1603,7 +1618,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="31"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1618,7 +1633,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1651,7 +1666,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1665,458 +1680,510 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" ht="24" spans="1:11">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" ht="24" spans="1:11">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" ht="24" spans="1:11">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" ht="24" spans="1:11">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" ht="24" spans="1:11">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" ht="24" spans="1:11">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" ht="24" spans="1:11">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" ht="24" spans="1:11">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" ht="24" spans="1:11">
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" ht="24" spans="1:11">
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" ht="31" customHeight="1" spans="1:11">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" ht="24" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" ht="27" customHeight="1" spans="1:11">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="11" t="s">
+    <row r="16" ht="24" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12" t="s">
         <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" ht="28" customHeight="1" spans="1:11">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
+    <row r="17" ht="24" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>42</v>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:11">
-      <c r="A18" s="22">
+    <row r="18" ht="31" customHeight="1" spans="1:11">
+      <c r="A18" s="9">
+        <v>12</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:11">
+      <c r="A19" s="9">
+        <v>13</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" ht="28" customHeight="1" spans="1:11">
+      <c r="A20" s="9">
+        <v>14</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" ht="25" customHeight="1" spans="1:11">
+      <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" ht="25" customHeight="1" spans="1:11">
-      <c r="A19" s="22">
+      <c r="G21" s="23"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" ht="25" customHeight="1" spans="1:11">
+      <c r="A22" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:11">
-      <c r="A20" s="22">
+      <c r="G22" s="23"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:11">
+      <c r="A23" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:11">
-      <c r="A21" s="26">
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:11">
+      <c r="A24" s="25">
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" ht="27" spans="1:11">
-      <c r="A22" s="26">
+      <c r="B24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" ht="27" spans="1:11">
+      <c r="A25" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" ht="25" customHeight="1" spans="1:11">
-      <c r="A23" s="22">
+      <c r="F25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" ht="25" customHeight="1" spans="1:11">
+      <c r="A26" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="B26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2136,26 +2203,36 @@
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
     </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9 G10:G12">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -2177,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2185,10 +2262,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2196,15 +2273,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2234,31 +2311,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
